--- a/Baldriod/Baldriod terv.xlsx
+++ b/Baldriod/Baldriod terv.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>Player name</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>Inventory</t>
+  </si>
+  <si>
+    <t>Durability</t>
   </si>
 </sst>
 </file>
@@ -494,12 +497,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -507,36 +540,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -845,7 +848,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -985,10 +988,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12">
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="41"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="2:12">
       <c r="B2" s="22" t="s">
@@ -1001,69 +1004,69 @@
         <v>7</v>
       </c>
       <c r="H2" s="23"/>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="34"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="27" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="28"/>
+      <c r="E3" s="29"/>
       <c r="G3" s="23" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="23"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="37"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="35"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="27" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="29"/>
       <c r="G4" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="23"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="40"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="38"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="27" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="27" t="s">
+      <c r="C6" s="29"/>
+      <c r="D6" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="G6" s="27" t="s">
+      <c r="E6" s="29"/>
+      <c r="G6" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="28"/>
+      <c r="H6" s="29"/>
       <c r="J6" s="22" t="s">
         <v>13</v>
       </c>
@@ -1071,10 +1074,10 @@
       <c r="L6" s="22"/>
     </row>
     <row r="7" spans="2:12">
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="28"/>
+      <c r="H7" s="29"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
@@ -1085,14 +1088,14 @@
       <c r="L8" s="22"/>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="30" t="s">
+      <c r="D9" s="41"/>
+      <c r="E9" s="40" t="s">
         <v>44</v>
       </c>
       <c r="G9" s="24" t="s">
@@ -1104,10 +1107,10 @@
       <c r="L9" s="22"/>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="30"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="40"/>
       <c r="G10" s="24"/>
       <c r="H10" s="26"/>
       <c r="J10" s="22"/>
@@ -1203,6 +1206,26 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="J2:L4"/>
+    <mergeCell ref="J6:L17"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G13:H13"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:C3"/>
@@ -1211,26 +1234,6 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="J2:L4"/>
-    <mergeCell ref="J6:L17"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1239,10 +1242,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1324,8 +1327,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.4" thickBot="1">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="9">
@@ -1344,86 +1347,102 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="21"/>
-      <c r="B7" s="3" t="s">
+    <row r="6" spans="1:7" ht="14.4" thickBot="1">
+      <c r="A6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="21"/>
+      <c r="B8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="20">
+        <v>1</v>
+      </c>
+      <c r="C9" s="19">
+        <v>2</v>
+      </c>
+      <c r="D9" s="19">
+        <v>3</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="7">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2">
-        <v>17</v>
-      </c>
-      <c r="D10" s="2">
-        <v>30</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="7">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2">
+        <v>30</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2">
         <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
     </row>
